--- a/mapping/Bacteria.xlsx
+++ b/mapping/Bacteria.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B2603"/>
+  <dimension ref="A1:B2696"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -30496,1162 +30496,2278 @@
     <row r="2507">
       <c r="A2507" t="inlineStr">
         <is>
-          <t>Aliidongia</t>
+          <t>Aceticella</t>
         </is>
       </c>
       <c r="B2507" t="inlineStr">
         <is>
-          <t>阿里东菌属</t>
+          <t>醋胞菌属</t>
         </is>
       </c>
     </row>
     <row r="2508">
       <c r="A2508" t="inlineStr">
         <is>
-          <t>Phaeospirillum</t>
+          <t>Petrocella</t>
         </is>
       </c>
       <c r="B2508" t="inlineStr">
         <is>
-          <t>褐螺菌属</t>
+          <t>石胞菌属</t>
         </is>
       </c>
     </row>
     <row r="2509">
       <c r="A2509" t="inlineStr">
         <is>
-          <t>Sinisalibacter</t>
+          <t>Pseudoglutamicibacter</t>
         </is>
       </c>
       <c r="B2509" t="inlineStr">
         <is>
-          <t>盐碱杆菌属</t>
+          <t>假谷氨酸杆菌属</t>
         </is>
       </c>
     </row>
     <row r="2510">
       <c r="A2510" t="inlineStr">
         <is>
-          <t>Neiella</t>
+          <t>Thalassoglobus</t>
         </is>
       </c>
       <c r="B2510" t="inlineStr">
         <is>
-          <t>内氏菌属</t>
+          <t>海球菌属</t>
         </is>
       </c>
     </row>
     <row r="2511">
       <c r="A2511" t="inlineStr">
         <is>
-          <t>Ureaplasma</t>
+          <t>Halanaerobacter</t>
         </is>
       </c>
       <c r="B2511" t="inlineStr">
         <is>
-          <t>脲原体属</t>
+          <t>盐厌氧菌属</t>
         </is>
       </c>
     </row>
     <row r="2512">
       <c r="A2512" t="inlineStr">
         <is>
-          <t>Gilliamella</t>
+          <t>Candidatus Brachybacter</t>
         </is>
       </c>
       <c r="B2512" t="inlineStr">
         <is>
-          <t>吉利亚菌属</t>
+          <t>候选短菌属</t>
         </is>
       </c>
     </row>
     <row r="2513">
       <c r="A2513" t="inlineStr">
         <is>
-          <t>Aquisalinus</t>
+          <t>Plantibacter</t>
         </is>
       </c>
       <c r="B2513" t="inlineStr">
         <is>
-          <t>盐生细菌属</t>
+          <t>植物杆菌属</t>
         </is>
       </c>
     </row>
     <row r="2514">
       <c r="A2514" t="inlineStr">
         <is>
-          <t>Primorskyibacter</t>
+          <t>Rouxiella</t>
         </is>
       </c>
       <c r="B2514" t="inlineStr">
         <is>
-          <t>远东细菌属</t>
+          <t>若西菌属</t>
         </is>
       </c>
     </row>
     <row r="2515">
       <c r="A2515" t="inlineStr">
         <is>
-          <t>Mesomycoplasma</t>
+          <t>Pacificimonas</t>
         </is>
       </c>
       <c r="B2515" t="inlineStr">
         <is>
-          <t>中支原体属</t>
+          <t>太平洋单胞菌属</t>
         </is>
       </c>
     </row>
     <row r="2516">
       <c r="A2516" t="inlineStr">
         <is>
-          <t>Herbidospora</t>
+          <t>Micrococcoides</t>
         </is>
       </c>
       <c r="B2516" t="inlineStr">
         <is>
-          <t>草地分解菌属</t>
+          <t>微球菌形菌属</t>
         </is>
       </c>
     </row>
     <row r="2517">
       <c r="A2517" t="inlineStr">
         <is>
-          <t>Necropsobacter</t>
+          <t>Hominimerdicola</t>
         </is>
       </c>
       <c r="B2517" t="inlineStr">
         <is>
-          <t>尸杆菌属</t>
+          <t>人栖暗菌属</t>
         </is>
       </c>
     </row>
     <row r="2518">
       <c r="A2518" t="inlineStr">
         <is>
-          <t>Holdemania</t>
+          <t>Luteococcus</t>
         </is>
       </c>
       <c r="B2518" t="inlineStr">
         <is>
-          <t>霍尔德曼菌属</t>
+          <t>黄体球菌属</t>
         </is>
       </c>
     </row>
     <row r="2519">
       <c r="A2519" t="inlineStr">
         <is>
-          <t>Candidatus Brachybacter</t>
+          <t>Algiphilus</t>
         </is>
       </c>
       <c r="B2519" t="inlineStr">
         <is>
-          <t>候选短菌属</t>
+          <t>嗜藻菌属</t>
         </is>
       </c>
     </row>
     <row r="2520">
       <c r="A2520" t="inlineStr">
         <is>
-          <t>Yokenella</t>
+          <t>Aliidongia</t>
         </is>
       </c>
       <c r="B2520" t="inlineStr">
         <is>
-          <t>优肯氏菌属</t>
+          <t>阿里东菌属</t>
         </is>
       </c>
     </row>
     <row r="2521">
       <c r="A2521" t="inlineStr">
         <is>
-          <t>Oceanicella</t>
+          <t>Micropruina</t>
         </is>
       </c>
       <c r="B2521" t="inlineStr">
         <is>
-          <t>海洋单胞菌属</t>
+          <t>微普林纳菌属</t>
         </is>
       </c>
     </row>
     <row r="2522">
       <c r="A2522" t="inlineStr">
         <is>
-          <t>Pallidibacillus</t>
+          <t>Marinisporobacter</t>
         </is>
       </c>
       <c r="B2522" t="inlineStr">
         <is>
-          <t>苍白芽孢杆菌属</t>
+          <t>海洋孢杆菌属</t>
         </is>
       </c>
     </row>
     <row r="2523">
       <c r="A2523" t="inlineStr">
         <is>
-          <t>Lentibacillus</t>
+          <t>Franconibacter</t>
         </is>
       </c>
       <c r="B2523" t="inlineStr">
         <is>
-          <t>缓慢芽孢杆菌属</t>
+          <t>弗朗菌属</t>
         </is>
       </c>
     </row>
     <row r="2524">
       <c r="A2524" t="inlineStr">
         <is>
-          <t>Alkalibacillus</t>
+          <t>Lachnoanaerobaculum</t>
         </is>
       </c>
       <c r="B2524" t="inlineStr">
         <is>
-          <t>碱性芽孢杆菌属</t>
+          <t>毛厌氧杆菌属</t>
         </is>
       </c>
     </row>
     <row r="2525">
       <c r="A2525" t="inlineStr">
         <is>
-          <t>Filobacillus</t>
+          <t>Paradevosia</t>
         </is>
       </c>
       <c r="B2525" t="inlineStr">
         <is>
-          <t>线状芽孢杆菌属</t>
+          <t>副德沃斯菌属</t>
         </is>
       </c>
     </row>
     <row r="2526">
       <c r="A2526" t="inlineStr">
         <is>
-          <t>Allisonella</t>
+          <t>Rhodocytophaga</t>
         </is>
       </c>
       <c r="B2526" t="inlineStr">
         <is>
-          <t>阿利森氏菌属</t>
+          <t>红噬胞菌属</t>
         </is>
       </c>
     </row>
     <row r="2527">
       <c r="A2527" t="inlineStr">
         <is>
-          <t>Murimonas</t>
+          <t>Hazenella</t>
         </is>
       </c>
       <c r="B2527" t="inlineStr">
         <is>
-          <t>壁菌属</t>
+          <t>哈兹单胞菌</t>
         </is>
       </c>
     </row>
     <row r="2528">
       <c r="A2528" t="inlineStr">
         <is>
-          <t>Anaerobacillus</t>
+          <t>Mucisphaera</t>
         </is>
       </c>
       <c r="B2528" t="inlineStr">
         <is>
-          <t>厌氧巴克氏菌</t>
+          <t>黏液球形菌属</t>
         </is>
       </c>
     </row>
     <row r="2529">
       <c r="A2529" t="inlineStr">
         <is>
-          <t>Terrihalobacillus</t>
+          <t>Faecousia</t>
         </is>
       </c>
       <c r="B2529" t="inlineStr">
         <is>
-          <t>土壤盐单胞菌</t>
+          <t>粪菌属</t>
         </is>
       </c>
     </row>
     <row r="2530">
       <c r="A2530" t="inlineStr">
         <is>
-          <t>Hazenella</t>
+          <t>Yokenella</t>
         </is>
       </c>
       <c r="B2530" t="inlineStr">
         <is>
-          <t>哈兹单胞菌</t>
+          <t>优肯氏菌属</t>
         </is>
       </c>
     </row>
     <row r="2531">
       <c r="A2531" t="inlineStr">
         <is>
-          <t>Vermiculatibacterium</t>
+          <t>Terracidiphilus</t>
         </is>
       </c>
       <c r="B2531" t="inlineStr">
         <is>
-          <t>蠕虫单胞菌</t>
+          <t>喜酸土菌属</t>
         </is>
       </c>
     </row>
     <row r="2532">
       <c r="A2532" t="inlineStr">
         <is>
-          <t>Marivibrio</t>
+          <t>Naasia</t>
         </is>
       </c>
       <c r="B2532" t="inlineStr">
         <is>
-          <t>海洋振动单胞菌</t>
+          <t>纳西亚菌属</t>
         </is>
       </c>
     </row>
     <row r="2533">
       <c r="A2533" t="inlineStr">
         <is>
-          <t>Microscilla</t>
+          <t>Methylomarinovum</t>
         </is>
       </c>
       <c r="B2533" t="inlineStr">
         <is>
-          <t>微颤菌属</t>
+          <t>海洋甲基菌属</t>
         </is>
       </c>
     </row>
     <row r="2534">
       <c r="A2534" t="inlineStr">
         <is>
-          <t>Anaerobium</t>
+          <t>Sangeribacter</t>
         </is>
       </c>
       <c r="B2534" t="inlineStr">
         <is>
-          <t>厌氧细菌</t>
+          <t>桑格杆菌属</t>
         </is>
       </c>
     </row>
     <row r="2535">
       <c r="A2535" t="inlineStr">
         <is>
-          <t>Solihabitans</t>
+          <t>Floridanema</t>
         </is>
       </c>
       <c r="B2535" t="inlineStr">
         <is>
-          <t>土栖菌属</t>
+          <t>佛罗里达丝菌属</t>
         </is>
       </c>
     </row>
     <row r="2536">
       <c r="A2536" t="inlineStr">
         <is>
-          <t>Lottiidibacillus</t>
+          <t>Paludifilum</t>
         </is>
       </c>
       <c r="B2536" t="inlineStr">
         <is>
-          <t>洛蒂氏芽孢杆菌</t>
+          <t>沼丝菌属</t>
         </is>
       </c>
     </row>
     <row r="2537">
       <c r="A2537" t="inlineStr">
         <is>
-          <t>Cocleimonas</t>
+          <t>Natranaerovirga</t>
         </is>
       </c>
       <c r="B2537" t="inlineStr">
         <is>
-          <t>螺旋单胞菌</t>
+          <t>盐碱厌氧螺菌属</t>
         </is>
       </c>
     </row>
     <row r="2538">
       <c r="A2538" t="inlineStr">
         <is>
-          <t>Roseicyclus</t>
+          <t>Echinicola</t>
         </is>
       </c>
       <c r="B2538" t="inlineStr">
         <is>
-          <t>玫瑰环状球菌</t>
+          <t>海胆菌属</t>
         </is>
       </c>
     </row>
     <row r="2539">
       <c r="A2539" t="inlineStr">
         <is>
-          <t>Staphylospora</t>
+          <t>Moheibacter</t>
         </is>
       </c>
       <c r="B2539" t="inlineStr">
         <is>
-          <t>葡萄孢菌属</t>
+          <t>莫河菌属</t>
         </is>
       </c>
     </row>
     <row r="2540">
       <c r="A2540" t="inlineStr">
         <is>
-          <t>Yoonia</t>
+          <t>Hoyosella</t>
         </is>
       </c>
       <c r="B2540" t="inlineStr">
         <is>
-          <t>尹氏单胞菌</t>
+          <t>奥约氏菌属</t>
         </is>
       </c>
     </row>
     <row r="2541">
       <c r="A2541" t="inlineStr">
         <is>
-          <t>Maritimibacter</t>
+          <t>Lebetimonas</t>
         </is>
       </c>
       <c r="B2541" t="inlineStr">
         <is>
-          <t>海洋单胞菌</t>
+          <t>勒贝氏单胞菌属</t>
         </is>
       </c>
     </row>
     <row r="2542">
       <c r="A2542" t="inlineStr">
         <is>
-          <t>Polluticaenibacter</t>
+          <t>Fontibacter</t>
         </is>
       </c>
       <c r="B2542" t="inlineStr">
         <is>
-          <t>污染性单胞菌</t>
+          <t>泉杆菌属</t>
         </is>
       </c>
     </row>
     <row r="2543">
       <c r="A2543" t="inlineStr">
         <is>
-          <t>Radiobacillus</t>
+          <t>Roseobacter</t>
         </is>
       </c>
       <c r="B2543" t="inlineStr">
         <is>
-          <t>辐射芽孢杆菌</t>
+          <t>玫瑰杆菌属</t>
         </is>
       </c>
     </row>
     <row r="2544">
       <c r="A2544" t="inlineStr">
         <is>
-          <t>Planctellipticum</t>
+          <t>Antarcticirhabdus</t>
         </is>
       </c>
       <c r="B2544" t="inlineStr">
         <is>
-          <t>浮游类细菌属</t>
+          <t>南极杆形菌属</t>
         </is>
       </c>
     </row>
     <row r="2545">
       <c r="A2545" t="inlineStr">
         <is>
-          <t>Anaerotardibacter</t>
+          <t>Rudanella</t>
         </is>
       </c>
       <c r="B2545" t="inlineStr">
         <is>
-          <t>厌氧迟滞菌属</t>
+          <t>鲁丹菌属</t>
         </is>
       </c>
     </row>
     <row r="2546">
       <c r="A2546" t="inlineStr">
         <is>
-          <t>Fodinisporobacter</t>
+          <t>Nissabacter</t>
         </is>
       </c>
       <c r="B2546" t="inlineStr">
         <is>
-          <t>福狄氏孢菌属</t>
+          <t>尼萨杆菌属</t>
         </is>
       </c>
     </row>
     <row r="2547">
       <c r="A2547" t="inlineStr">
         <is>
-          <t>Thalassorhabdus</t>
+          <t>Leadbetterella</t>
         </is>
       </c>
       <c r="B2547" t="inlineStr">
         <is>
-          <t>海洋杆状菌属</t>
+          <t>李德贝特氏菌属</t>
         </is>
       </c>
     </row>
     <row r="2548">
       <c r="A2548" t="inlineStr">
         <is>
-          <t>Nanhaiella</t>
+          <t>Neptuniibacter</t>
         </is>
       </c>
       <c r="B2548" t="inlineStr">
         <is>
-          <t>南海菌属</t>
+          <t>海神杆菌属</t>
         </is>
       </c>
     </row>
     <row r="2549">
       <c r="A2549" t="inlineStr">
         <is>
-          <t>Rouxiella</t>
+          <t>Marihabitans</t>
         </is>
       </c>
       <c r="B2549" t="inlineStr">
         <is>
-          <t>若西菌属</t>
+          <t>海洋栖菌属</t>
         </is>
       </c>
     </row>
     <row r="2550">
       <c r="A2550" t="inlineStr">
         <is>
-          <t>Silicimonas</t>
+          <t>Candidatus Kryptobacter</t>
         </is>
       </c>
       <c r="B2550" t="inlineStr">
         <is>
-          <t>硅单胞菌属</t>
+          <t>隐杆菌属</t>
         </is>
       </c>
     </row>
     <row r="2551">
       <c r="A2551" t="inlineStr">
         <is>
-          <t>Filifactor</t>
+          <t>Tardibacter</t>
         </is>
       </c>
       <c r="B2551" t="inlineStr">
         <is>
-          <t>丝状因子菌属</t>
+          <t>迟缓杆菌属</t>
         </is>
       </c>
     </row>
     <row r="2552">
       <c r="A2552" t="inlineStr">
         <is>
-          <t>Winkia</t>
+          <t>Polystyrenella</t>
         </is>
       </c>
       <c r="B2552" t="inlineStr">
         <is>
-          <t>温基阿菌属</t>
+          <t>聚苯乙烯菌属</t>
         </is>
       </c>
     </row>
     <row r="2553">
       <c r="A2553" t="inlineStr">
         <is>
-          <t>Planifilum</t>
+          <t>Anaerotalea</t>
         </is>
       </c>
       <c r="B2553" t="inlineStr">
         <is>
-          <t>平面细菌属</t>
+          <t>厌氧辫菌属</t>
         </is>
       </c>
     </row>
     <row r="2554">
       <c r="A2554" t="inlineStr">
         <is>
-          <t>Agaricicola</t>
+          <t>Paramixta</t>
         </is>
       </c>
       <c r="B2554" t="inlineStr">
         <is>
-          <t>伞菌酸杆菌属</t>
+          <t>副混合菌属</t>
         </is>
       </c>
     </row>
     <row r="2555">
       <c r="A2555" t="inlineStr">
         <is>
-          <t>Mongoliimonas</t>
+          <t>Terrirhizobium</t>
         </is>
       </c>
       <c r="B2555" t="inlineStr">
         <is>
-          <t>蒙古单胞菌属</t>
+          <t>土根瘤菌属</t>
         </is>
       </c>
     </row>
     <row r="2556">
       <c r="A2556" t="inlineStr">
         <is>
-          <t>Paucihalobacter</t>
+          <t>Mongoliibacter</t>
         </is>
       </c>
       <c r="B2556" t="inlineStr">
         <is>
-          <t>寡盐杆菌属</t>
+          <t>蒙古杆菌属</t>
         </is>
       </c>
     </row>
     <row r="2557">
       <c r="A2557" t="inlineStr">
         <is>
-          <t>Marinococcus</t>
+          <t>Thermoflexibacter</t>
         </is>
       </c>
       <c r="B2557" t="inlineStr">
         <is>
-          <t>海洋球菌属</t>
+          <t>热曲杆菌属</t>
         </is>
       </c>
     </row>
     <row r="2558">
       <c r="A2558" t="inlineStr">
         <is>
-          <t>Faecalimonas</t>
+          <t>Mastigocladopsis</t>
         </is>
       </c>
       <c r="B2558" t="inlineStr">
         <is>
-          <t>粪单胞菌属</t>
+          <t>拟柱孢藻属</t>
         </is>
       </c>
     </row>
     <row r="2559">
       <c r="A2559" t="inlineStr">
         <is>
-          <t>Herpetosiphon</t>
+          <t>Superficieibacter</t>
         </is>
       </c>
       <c r="B2559" t="inlineStr">
         <is>
-          <t>爬管菌属</t>
+          <t>表面杆菌属</t>
         </is>
       </c>
     </row>
     <row r="2560">
       <c r="A2560" t="inlineStr">
         <is>
-          <t>Bovifimicola</t>
+          <t>Pseudescherichia</t>
         </is>
       </c>
       <c r="B2560" t="inlineStr">
         <is>
-          <t>牛栖泥菌属</t>
+          <t>假埃希菌属</t>
         </is>
       </c>
     </row>
     <row r="2561">
       <c r="A2561" t="inlineStr">
         <is>
-          <t>Huintestinicola</t>
+          <t>Candidatus Schmidhempelia</t>
         </is>
       </c>
       <c r="B2561" t="inlineStr">
         <is>
-          <t>许氏栖菌属</t>
+          <t>施密特亨佩尔菌属</t>
         </is>
       </c>
     </row>
     <row r="2562">
       <c r="A2562" t="inlineStr">
         <is>
-          <t>Amedibacterium</t>
+          <t>Phaeospirillum</t>
         </is>
       </c>
       <c r="B2562" t="inlineStr">
         <is>
-          <t>阿米德杆菌属</t>
+          <t>褐螺菌属</t>
         </is>
       </c>
     </row>
     <row r="2563">
       <c r="A2563" t="inlineStr">
         <is>
-          <t>Hominisplanchenecus</t>
+          <t>Sinisalibacter</t>
         </is>
       </c>
       <c r="B2563" t="inlineStr">
         <is>
-          <t>人栖扁菌属</t>
+          <t>盐碱杆菌属</t>
         </is>
       </c>
     </row>
     <row r="2564">
       <c r="A2564" t="inlineStr">
         <is>
-          <t>Dulcicalothrix</t>
+          <t>Neiella</t>
         </is>
       </c>
       <c r="B2564" t="inlineStr">
         <is>
-          <t>甜美绳蓝细菌属</t>
+          <t>内氏菌属</t>
         </is>
       </c>
     </row>
     <row r="2565">
       <c r="A2565" t="inlineStr">
         <is>
-          <t>Halalkalibacillus</t>
+          <t>Ureaplasma</t>
         </is>
       </c>
       <c r="B2565" t="inlineStr">
         <is>
-          <t>盐碱芽孢杆菌属</t>
+          <t>脲原体属</t>
         </is>
       </c>
     </row>
     <row r="2566">
       <c r="A2566" t="inlineStr">
         <is>
-          <t>Granulibacter</t>
+          <t>Gilliamella</t>
         </is>
       </c>
       <c r="B2566" t="inlineStr">
         <is>
-          <t>颗粒杆菌属</t>
+          <t>吉利亚菌属</t>
         </is>
       </c>
     </row>
     <row r="2567">
       <c r="A2567" t="inlineStr">
         <is>
-          <t>Massilistercora</t>
+          <t>Aquisalinus</t>
         </is>
       </c>
       <c r="B2567" t="inlineStr">
         <is>
-          <t>马赛氏菌属</t>
+          <t>盐生细菌属</t>
         </is>
       </c>
     </row>
     <row r="2568">
       <c r="A2568" t="inlineStr">
         <is>
-          <t>Gallintestinimicrobium</t>
+          <t>Primorskyibacter</t>
         </is>
       </c>
       <c r="B2568" t="inlineStr">
         <is>
-          <t>鸡肠微菌属</t>
+          <t>远东细菌属</t>
         </is>
       </c>
     </row>
     <row r="2569">
       <c r="A2569" t="inlineStr">
         <is>
-          <t>Saccharophagus</t>
+          <t>Mesomycoplasma</t>
         </is>
       </c>
       <c r="B2569" t="inlineStr">
         <is>
-          <t>食糖菌属</t>
+          <t>中支原体属</t>
         </is>
       </c>
     </row>
     <row r="2570">
       <c r="A2570" t="inlineStr">
         <is>
-          <t>Pontibacillus</t>
+          <t>Herbidospora</t>
         </is>
       </c>
       <c r="B2570" t="inlineStr">
         <is>
-          <t>海芽孢杆菌属</t>
+          <t>草地分解菌属</t>
         </is>
       </c>
     </row>
     <row r="2571">
       <c r="A2571" t="inlineStr">
         <is>
-          <t>Brucepastera</t>
+          <t>Necropsobacter</t>
         </is>
       </c>
       <c r="B2571" t="inlineStr">
         <is>
-          <t>布鲁斯帕斯特菌属</t>
+          <t>尸杆菌属</t>
         </is>
       </c>
     </row>
     <row r="2572">
       <c r="A2572" t="inlineStr">
         <is>
-          <t>Fontibacter</t>
+          <t>Holdemania</t>
         </is>
       </c>
       <c r="B2572" t="inlineStr">
         <is>
-          <t>泉杆菌属</t>
+          <t>霍尔德曼菌属</t>
         </is>
       </c>
     </row>
     <row r="2573">
       <c r="A2573" t="inlineStr">
         <is>
-          <t>Leadbetterella</t>
+          <t>Oceanicella</t>
         </is>
       </c>
       <c r="B2573" t="inlineStr">
         <is>
-          <t>李德贝特氏菌属</t>
+          <t>海洋单胞菌属</t>
         </is>
       </c>
     </row>
     <row r="2574">
       <c r="A2574" t="inlineStr">
         <is>
-          <t>Dichelobacter</t>
+          <t>Pallidibacillus</t>
         </is>
       </c>
       <c r="B2574" t="inlineStr">
         <is>
-          <t>双杆菌属</t>
+          <t>苍白芽孢杆菌属</t>
         </is>
       </c>
     </row>
     <row r="2575">
       <c r="A2575" t="inlineStr">
         <is>
-          <t>Commensalibacter</t>
+          <t>Lentibacillus</t>
         </is>
       </c>
       <c r="B2575" t="inlineStr">
         <is>
-          <t>共栖杆菌属</t>
+          <t>缓慢芽孢杆菌属</t>
         </is>
       </c>
     </row>
     <row r="2576">
       <c r="A2576" t="inlineStr">
         <is>
-          <t>Mobiluncus</t>
+          <t>Alkalibacillus</t>
         </is>
       </c>
       <c r="B2576" t="inlineStr">
         <is>
-          <t>动弯杆菌属</t>
+          <t>碱性芽孢杆菌属</t>
         </is>
       </c>
     </row>
     <row r="2577">
       <c r="A2577" t="inlineStr">
         <is>
-          <t>Mongoliibacter</t>
+          <t>Filobacillus</t>
         </is>
       </c>
       <c r="B2577" t="inlineStr">
         <is>
-          <t>蒙古杆菌属</t>
+          <t>线状芽孢杆菌属</t>
         </is>
       </c>
     </row>
     <row r="2578">
       <c r="A2578" t="inlineStr">
         <is>
-          <t>Hallella</t>
+          <t>Allisonella</t>
         </is>
       </c>
       <c r="B2578" t="inlineStr">
         <is>
-          <t>哈氏菌属</t>
+          <t>阿利森氏菌属</t>
         </is>
       </c>
     </row>
     <row r="2579">
       <c r="A2579" t="inlineStr">
         <is>
-          <t>Aureitalea</t>
+          <t>Murimonas</t>
         </is>
       </c>
       <c r="B2579" t="inlineStr">
         <is>
-          <t>金色栖菌属</t>
+          <t>壁菌属</t>
         </is>
       </c>
     </row>
     <row r="2580">
       <c r="A2580" t="inlineStr">
         <is>
-          <t>Arundinibacter</t>
+          <t>Anaerobacillus</t>
         </is>
       </c>
       <c r="B2580" t="inlineStr">
         <is>
-          <t>芦杆菌属</t>
+          <t>厌氧巴克氏菌</t>
         </is>
       </c>
     </row>
     <row r="2581">
       <c r="A2581" t="inlineStr">
         <is>
-          <t>Kyrpidia</t>
+          <t>Terrihalobacillus</t>
         </is>
       </c>
       <c r="B2581" t="inlineStr">
         <is>
-          <t>克尔氏菌属</t>
+          <t>土壤盐单胞菌</t>
         </is>
       </c>
     </row>
     <row r="2582">
       <c r="A2582" t="inlineStr">
         <is>
-          <t>Zymobacter</t>
+          <t>Vermiculatibacterium</t>
         </is>
       </c>
       <c r="B2582" t="inlineStr">
         <is>
-          <t>发酵杆菌属</t>
+          <t>蠕虫单胞菌</t>
         </is>
       </c>
     </row>
     <row r="2583">
       <c r="A2583" t="inlineStr">
         <is>
-          <t>Pelagivirga</t>
+          <t>Marivibrio</t>
         </is>
       </c>
       <c r="B2583" t="inlineStr">
         <is>
-          <t>海洋杆状菌属</t>
+          <t>海洋振动单胞菌</t>
         </is>
       </c>
     </row>
     <row r="2584">
       <c r="A2584" t="inlineStr">
         <is>
-          <t>Holospora</t>
+          <t>Microscilla</t>
         </is>
       </c>
       <c r="B2584" t="inlineStr">
         <is>
-          <t>全孢菌属</t>
+          <t>微颤菌属</t>
         </is>
       </c>
     </row>
     <row r="2585">
       <c r="A2585" t="inlineStr">
         <is>
-          <t>Thermobispora</t>
+          <t>Anaerobium</t>
         </is>
       </c>
       <c r="B2585" t="inlineStr">
         <is>
-          <t>热双孢菌属</t>
+          <t>厌氧细菌</t>
         </is>
       </c>
     </row>
     <row r="2586">
       <c r="A2586" t="inlineStr">
         <is>
-          <t>Pajaroellobacter</t>
+          <t>Solihabitans</t>
         </is>
       </c>
       <c r="B2586" t="inlineStr">
         <is>
-          <t>帕哈罗杆菌属</t>
+          <t>土栖菌属</t>
         </is>
       </c>
     </row>
     <row r="2587">
       <c r="A2587" t="inlineStr">
         <is>
-          <t>Siculibacillus</t>
+          <t>Lottiidibacillus</t>
         </is>
       </c>
       <c r="B2587" t="inlineStr">
         <is>
-          <t>镰刀形芽孢杆菌属</t>
+          <t>洛蒂氏芽孢杆菌</t>
         </is>
       </c>
     </row>
     <row r="2588">
       <c r="A2588" t="inlineStr">
         <is>
-          <t>Metamycoplasma</t>
+          <t>Cocleimonas</t>
         </is>
       </c>
       <c r="B2588" t="inlineStr">
         <is>
-          <t>代谢支原体属</t>
+          <t>螺旋单胞菌</t>
         </is>
       </c>
     </row>
     <row r="2589">
       <c r="A2589" t="inlineStr">
         <is>
-          <t>Imhoffiella</t>
+          <t>Roseicyclus</t>
         </is>
       </c>
       <c r="B2589" t="inlineStr">
         <is>
-          <t>英霍夫氏菌属</t>
+          <t>玫瑰环状球菌</t>
         </is>
       </c>
     </row>
     <row r="2590">
       <c r="A2590" t="inlineStr">
         <is>
-          <t>Mucisphaera</t>
+          <t>Staphylospora</t>
         </is>
       </c>
       <c r="B2590" t="inlineStr">
         <is>
-          <t>黏液球形菌属</t>
+          <t>葡萄孢菌属</t>
         </is>
       </c>
     </row>
     <row r="2591">
       <c r="A2591" t="inlineStr">
         <is>
-          <t>Catellicoccus</t>
+          <t>Yoonia</t>
         </is>
       </c>
       <c r="B2591" t="inlineStr">
         <is>
-          <t>链球菌属</t>
+          <t>尹氏单胞菌</t>
         </is>
       </c>
     </row>
     <row r="2592">
       <c r="A2592" t="inlineStr">
         <is>
-          <t>Emergencia</t>
+          <t>Maritimibacter</t>
         </is>
       </c>
       <c r="B2592" t="inlineStr">
         <is>
-          <t>新兴菌属</t>
+          <t>海洋单胞菌</t>
         </is>
       </c>
     </row>
     <row r="2593">
       <c r="A2593" t="inlineStr">
         <is>
-          <t>Desulfovirgula</t>
+          <t>Polluticaenibacter</t>
         </is>
       </c>
       <c r="B2593" t="inlineStr">
         <is>
-          <t>脱硫枝菌属</t>
+          <t>污染性单胞菌</t>
         </is>
       </c>
     </row>
     <row r="2594">
       <c r="A2594" t="inlineStr">
         <is>
-          <t>Gynurincola</t>
+          <t>Radiobacillus</t>
         </is>
       </c>
       <c r="B2594" t="inlineStr">
         <is>
-          <t>女阴栖菌属</t>
+          <t>辐射芽孢杆菌</t>
         </is>
       </c>
     </row>
     <row r="2595">
       <c r="A2595" t="inlineStr">
         <is>
-          <t>Hominifimenecus</t>
+          <t>Planctellipticum</t>
         </is>
       </c>
       <c r="B2595" t="inlineStr">
         <is>
-          <t>人栖小杆菌属</t>
+          <t>浮游类细菌属</t>
         </is>
       </c>
     </row>
     <row r="2596">
       <c r="A2596" t="inlineStr">
         <is>
-          <t>Anaplasma</t>
+          <t>Anaerotardibacter</t>
         </is>
       </c>
       <c r="B2596" t="inlineStr">
         <is>
-          <t>无形体属</t>
+          <t>厌氧迟滞菌属</t>
         </is>
       </c>
     </row>
     <row r="2597">
       <c r="A2597" t="inlineStr">
         <is>
-          <t>Streptobacillus</t>
+          <t>Fodinisporobacter</t>
         </is>
       </c>
       <c r="B2597" t="inlineStr">
         <is>
-          <t>链杆菌属</t>
+          <t>福狄氏孢菌属</t>
         </is>
       </c>
     </row>
     <row r="2598">
       <c r="A2598" t="inlineStr">
         <is>
-          <t>Merdimmobilis</t>
+          <t>Thalassorhabdus</t>
         </is>
       </c>
       <c r="B2598" t="inlineStr">
         <is>
-          <t>粪固着菌属</t>
+          <t>海洋杆状菌属</t>
         </is>
       </c>
     </row>
     <row r="2599">
       <c r="A2599" t="inlineStr">
         <is>
-          <t>Candidatus Neoarthromitus</t>
+          <t>Nanhaiella</t>
         </is>
       </c>
       <c r="B2599" t="inlineStr">
         <is>
-          <t>候选新节膜菌属</t>
+          <t>南海菌属</t>
         </is>
       </c>
     </row>
     <row r="2600">
       <c r="A2600" t="inlineStr">
         <is>
-          <t>Inmirania</t>
+          <t>Silicimonas</t>
         </is>
       </c>
       <c r="B2600" t="inlineStr">
         <is>
-          <t>因米拉尼氏菌属</t>
+          <t>硅单胞菌属</t>
         </is>
       </c>
     </row>
     <row r="2601">
       <c r="A2601" t="inlineStr">
         <is>
-          <t>Marihabitans</t>
+          <t>Filifactor</t>
         </is>
       </c>
       <c r="B2601" t="inlineStr">
         <is>
-          <t>海洋栖菌属</t>
+          <t>丝状因子菌属</t>
         </is>
       </c>
     </row>
     <row r="2602">
       <c r="A2602" t="inlineStr">
         <is>
-          <t>Limnochorda</t>
+          <t>Winkia</t>
         </is>
       </c>
       <c r="B2602" t="inlineStr">
         <is>
-          <t>湖绳菌属</t>
+          <t>温基阿菌属</t>
         </is>
       </c>
     </row>
     <row r="2603">
       <c r="A2603" t="inlineStr">
         <is>
+          <t>Planifilum</t>
+        </is>
+      </c>
+      <c r="B2603" t="inlineStr">
+        <is>
+          <t>平面细菌属</t>
+        </is>
+      </c>
+    </row>
+    <row r="2604">
+      <c r="A2604" t="inlineStr">
+        <is>
+          <t>Agaricicola</t>
+        </is>
+      </c>
+      <c r="B2604" t="inlineStr">
+        <is>
+          <t>伞菌酸杆菌属</t>
+        </is>
+      </c>
+    </row>
+    <row r="2605">
+      <c r="A2605" t="inlineStr">
+        <is>
+          <t>Mongoliimonas</t>
+        </is>
+      </c>
+      <c r="B2605" t="inlineStr">
+        <is>
+          <t>蒙古单胞菌属</t>
+        </is>
+      </c>
+    </row>
+    <row r="2606">
+      <c r="A2606" t="inlineStr">
+        <is>
+          <t>Paucihalobacter</t>
+        </is>
+      </c>
+      <c r="B2606" t="inlineStr">
+        <is>
+          <t>寡盐杆菌属</t>
+        </is>
+      </c>
+    </row>
+    <row r="2607">
+      <c r="A2607" t="inlineStr">
+        <is>
+          <t>Marinococcus</t>
+        </is>
+      </c>
+      <c r="B2607" t="inlineStr">
+        <is>
+          <t>海洋球菌属</t>
+        </is>
+      </c>
+    </row>
+    <row r="2608">
+      <c r="A2608" t="inlineStr">
+        <is>
+          <t>Faecalimonas</t>
+        </is>
+      </c>
+      <c r="B2608" t="inlineStr">
+        <is>
+          <t>粪单胞菌属</t>
+        </is>
+      </c>
+    </row>
+    <row r="2609">
+      <c r="A2609" t="inlineStr">
+        <is>
+          <t>Herpetosiphon</t>
+        </is>
+      </c>
+      <c r="B2609" t="inlineStr">
+        <is>
+          <t>爬管菌属</t>
+        </is>
+      </c>
+    </row>
+    <row r="2610">
+      <c r="A2610" t="inlineStr">
+        <is>
+          <t>Bovifimicola</t>
+        </is>
+      </c>
+      <c r="B2610" t="inlineStr">
+        <is>
+          <t>牛栖泥菌属</t>
+        </is>
+      </c>
+    </row>
+    <row r="2611">
+      <c r="A2611" t="inlineStr">
+        <is>
+          <t>Huintestinicola</t>
+        </is>
+      </c>
+      <c r="B2611" t="inlineStr">
+        <is>
+          <t>许氏栖菌属</t>
+        </is>
+      </c>
+    </row>
+    <row r="2612">
+      <c r="A2612" t="inlineStr">
+        <is>
+          <t>Amedibacterium</t>
+        </is>
+      </c>
+      <c r="B2612" t="inlineStr">
+        <is>
+          <t>阿米德杆菌属</t>
+        </is>
+      </c>
+    </row>
+    <row r="2613">
+      <c r="A2613" t="inlineStr">
+        <is>
+          <t>Hominisplanchenecus</t>
+        </is>
+      </c>
+      <c r="B2613" t="inlineStr">
+        <is>
+          <t>人栖扁菌属</t>
+        </is>
+      </c>
+    </row>
+    <row r="2614">
+      <c r="A2614" t="inlineStr">
+        <is>
+          <t>Dulcicalothrix</t>
+        </is>
+      </c>
+      <c r="B2614" t="inlineStr">
+        <is>
+          <t>甜美绳蓝细菌属</t>
+        </is>
+      </c>
+    </row>
+    <row r="2615">
+      <c r="A2615" t="inlineStr">
+        <is>
+          <t>Halalkalibacillus</t>
+        </is>
+      </c>
+      <c r="B2615" t="inlineStr">
+        <is>
+          <t>盐碱芽孢杆菌属</t>
+        </is>
+      </c>
+    </row>
+    <row r="2616">
+      <c r="A2616" t="inlineStr">
+        <is>
+          <t>Granulibacter</t>
+        </is>
+      </c>
+      <c r="B2616" t="inlineStr">
+        <is>
+          <t>颗粒杆菌属</t>
+        </is>
+      </c>
+    </row>
+    <row r="2617">
+      <c r="A2617" t="inlineStr">
+        <is>
+          <t>Massilistercora</t>
+        </is>
+      </c>
+      <c r="B2617" t="inlineStr">
+        <is>
+          <t>马赛氏菌属</t>
+        </is>
+      </c>
+    </row>
+    <row r="2618">
+      <c r="A2618" t="inlineStr">
+        <is>
+          <t>Gallintestinimicrobium</t>
+        </is>
+      </c>
+      <c r="B2618" t="inlineStr">
+        <is>
+          <t>鸡肠微菌属</t>
+        </is>
+      </c>
+    </row>
+    <row r="2619">
+      <c r="A2619" t="inlineStr">
+        <is>
+          <t>Saccharophagus</t>
+        </is>
+      </c>
+      <c r="B2619" t="inlineStr">
+        <is>
+          <t>食糖菌属</t>
+        </is>
+      </c>
+    </row>
+    <row r="2620">
+      <c r="A2620" t="inlineStr">
+        <is>
+          <t>Pontibacillus</t>
+        </is>
+      </c>
+      <c r="B2620" t="inlineStr">
+        <is>
+          <t>海芽孢杆菌属</t>
+        </is>
+      </c>
+    </row>
+    <row r="2621">
+      <c r="A2621" t="inlineStr">
+        <is>
+          <t>Brucepastera</t>
+        </is>
+      </c>
+      <c r="B2621" t="inlineStr">
+        <is>
+          <t>布鲁斯帕斯特菌属</t>
+        </is>
+      </c>
+    </row>
+    <row r="2622">
+      <c r="A2622" t="inlineStr">
+        <is>
+          <t>Dichelobacter</t>
+        </is>
+      </c>
+      <c r="B2622" t="inlineStr">
+        <is>
+          <t>双杆菌属</t>
+        </is>
+      </c>
+    </row>
+    <row r="2623">
+      <c r="A2623" t="inlineStr">
+        <is>
+          <t>Commensalibacter</t>
+        </is>
+      </c>
+      <c r="B2623" t="inlineStr">
+        <is>
+          <t>共栖杆菌属</t>
+        </is>
+      </c>
+    </row>
+    <row r="2624">
+      <c r="A2624" t="inlineStr">
+        <is>
+          <t>Mobiluncus</t>
+        </is>
+      </c>
+      <c r="B2624" t="inlineStr">
+        <is>
+          <t>动弯杆菌属</t>
+        </is>
+      </c>
+    </row>
+    <row r="2625">
+      <c r="A2625" t="inlineStr">
+        <is>
+          <t>Hallella</t>
+        </is>
+      </c>
+      <c r="B2625" t="inlineStr">
+        <is>
+          <t>哈氏菌属</t>
+        </is>
+      </c>
+    </row>
+    <row r="2626">
+      <c r="A2626" t="inlineStr">
+        <is>
+          <t>Aureitalea</t>
+        </is>
+      </c>
+      <c r="B2626" t="inlineStr">
+        <is>
+          <t>金色栖菌属</t>
+        </is>
+      </c>
+    </row>
+    <row r="2627">
+      <c r="A2627" t="inlineStr">
+        <is>
+          <t>Arundinibacter</t>
+        </is>
+      </c>
+      <c r="B2627" t="inlineStr">
+        <is>
+          <t>芦杆菌属</t>
+        </is>
+      </c>
+    </row>
+    <row r="2628">
+      <c r="A2628" t="inlineStr">
+        <is>
+          <t>Tenuibacillus</t>
+        </is>
+      </c>
+      <c r="B2628" t="inlineStr">
+        <is>
+          <t>薄壁杆菌属</t>
+        </is>
+      </c>
+    </row>
+    <row r="2629">
+      <c r="A2629" t="inlineStr">
+        <is>
+          <t>Rubellimicrobium</t>
+        </is>
+      </c>
+      <c r="B2629" t="inlineStr">
+        <is>
+          <t>红色微杆菌属</t>
+        </is>
+      </c>
+    </row>
+    <row r="2630">
+      <c r="A2630" t="inlineStr">
+        <is>
+          <t>Limimaricola</t>
+        </is>
+      </c>
+      <c r="B2630" t="inlineStr">
+        <is>
+          <t>泥滩居菌属</t>
+        </is>
+      </c>
+    </row>
+    <row r="2631">
+      <c r="A2631" t="inlineStr">
+        <is>
+          <t>Propionibacterium</t>
+        </is>
+      </c>
+      <c r="B2631" t="inlineStr">
+        <is>
+          <t>丙酸杆菌属</t>
+        </is>
+      </c>
+    </row>
+    <row r="2632">
+      <c r="A2632" t="inlineStr">
+        <is>
+          <t>Rugosimonospora</t>
+        </is>
+      </c>
+      <c r="B2632" t="inlineStr">
+        <is>
+          <t>皱单孢菌属</t>
+        </is>
+      </c>
+    </row>
+    <row r="2633">
+      <c r="A2633" t="inlineStr">
+        <is>
+          <t>Novosphingopyxis</t>
+        </is>
+      </c>
+      <c r="B2633" t="inlineStr">
+        <is>
+          <t>新鞘氨醇盒菌属</t>
+        </is>
+      </c>
+    </row>
+    <row r="2634">
+      <c r="A2634" t="inlineStr">
+        <is>
+          <t>Caenibius</t>
+        </is>
+      </c>
+      <c r="B2634" t="inlineStr">
+        <is>
+          <t>新近生活菌属</t>
+        </is>
+      </c>
+    </row>
+    <row r="2635">
+      <c r="A2635" t="inlineStr">
+        <is>
+          <t>Neptunitalea</t>
+        </is>
+      </c>
+      <c r="B2635" t="inlineStr">
+        <is>
+          <t>海神单孢菌属</t>
+        </is>
+      </c>
+    </row>
+    <row r="2636">
+      <c r="A2636" t="inlineStr">
+        <is>
+          <t>Chroococcidiopsis</t>
+        </is>
+      </c>
+      <c r="B2636" t="inlineStr">
+        <is>
+          <t>拟色球藻属</t>
+        </is>
+      </c>
+    </row>
+    <row r="2637">
+      <c r="A2637" t="inlineStr">
+        <is>
+          <t>Alteraurantiacibacter</t>
+        </is>
+      </c>
+      <c r="B2637" t="inlineStr">
+        <is>
+          <t>橙色交替杆菌属</t>
+        </is>
+      </c>
+    </row>
+    <row r="2638">
+      <c r="A2638" t="inlineStr">
+        <is>
+          <t>Dermabacter</t>
+        </is>
+      </c>
+      <c r="B2638" t="inlineStr">
+        <is>
+          <t>皮杆菌属</t>
+        </is>
+      </c>
+    </row>
+    <row r="2639">
+      <c r="A2639" t="inlineStr">
+        <is>
+          <t>Georgenia</t>
+        </is>
+      </c>
+      <c r="B2639" t="inlineStr">
+        <is>
+          <t>乔治菌属</t>
+        </is>
+      </c>
+    </row>
+    <row r="2640">
+      <c r="A2640" t="inlineStr">
+        <is>
+          <t>Panacagrimonas</t>
+        </is>
+      </c>
+      <c r="B2640" t="inlineStr">
+        <is>
+          <t>人参格里莫纳氏菌属</t>
+        </is>
+      </c>
+    </row>
+    <row r="2641">
+      <c r="A2641" t="inlineStr">
+        <is>
+          <t>Koleobacter</t>
+        </is>
+      </c>
+      <c r="B2641" t="inlineStr">
+        <is>
+          <t>鞘杆菌属</t>
+        </is>
+      </c>
+    </row>
+    <row r="2642">
+      <c r="A2642" t="inlineStr">
+        <is>
+          <t>Pseudocitrobacter</t>
+        </is>
+      </c>
+      <c r="B2642" t="inlineStr">
+        <is>
+          <t>假柠檬酸杆菌属</t>
+        </is>
+      </c>
+    </row>
+    <row r="2643">
+      <c r="A2643" t="inlineStr">
+        <is>
+          <t>Rhizorhapis</t>
+        </is>
+      </c>
+      <c r="B2643" t="inlineStr">
+        <is>
+          <t>根柄杆菌属</t>
+        </is>
+      </c>
+    </row>
+    <row r="2644">
+      <c r="A2644" t="inlineStr">
+        <is>
+          <t>Ohtaekwangia</t>
+        </is>
+      </c>
+      <c r="B2644" t="inlineStr">
+        <is>
+          <t>吴宅光菌属</t>
+        </is>
+      </c>
+    </row>
+    <row r="2645">
+      <c r="A2645" t="inlineStr">
+        <is>
+          <t>Acidomonas</t>
+        </is>
+      </c>
+      <c r="B2645" t="inlineStr">
+        <is>
+          <t>酸单孢菌属</t>
+        </is>
+      </c>
+    </row>
+    <row r="2646">
+      <c r="A2646" t="inlineStr">
+        <is>
+          <t>Actinocorallia</t>
+        </is>
+      </c>
+      <c r="B2646" t="inlineStr">
+        <is>
+          <t>珊瑚放线菌属</t>
+        </is>
+      </c>
+    </row>
+    <row r="2647">
+      <c r="A2647" t="inlineStr">
+        <is>
+          <t>Streptodolium</t>
+        </is>
+      </c>
+      <c r="B2647" t="inlineStr">
+        <is>
+          <t>绞链菌属</t>
+        </is>
+      </c>
+    </row>
+    <row r="2648">
+      <c r="A2648" t="inlineStr">
+        <is>
+          <t>Chryseosolibacter</t>
+        </is>
+      </c>
+      <c r="B2648" t="inlineStr">
+        <is>
+          <t>金土杆菌属</t>
+        </is>
+      </c>
+    </row>
+    <row r="2649">
+      <c r="A2649" t="inlineStr">
+        <is>
+          <t>Alteriqipengyuania</t>
+        </is>
+      </c>
+      <c r="B2649" t="inlineStr">
+        <is>
+          <t>气棚园交替菌属</t>
+        </is>
+      </c>
+    </row>
+    <row r="2650">
+      <c r="A2650" t="inlineStr">
+        <is>
+          <t>Phaeovulum</t>
+        </is>
+      </c>
+      <c r="B2650" t="inlineStr">
+        <is>
+          <t>棕色小壶菌属</t>
+        </is>
+      </c>
+    </row>
+    <row r="2651">
+      <c r="A2651" t="inlineStr">
+        <is>
+          <t>Pseudopontixanthobacter</t>
+        </is>
+      </c>
+      <c r="B2651" t="inlineStr">
+        <is>
+          <t>假海黄杆菌属</t>
+        </is>
+      </c>
+    </row>
+    <row r="2652">
+      <c r="A2652" t="inlineStr">
+        <is>
+          <t>Allosalinactinospora</t>
+        </is>
+      </c>
+      <c r="B2652" t="inlineStr">
+        <is>
+          <t>异盐放线孢菌属</t>
+        </is>
+      </c>
+    </row>
+    <row r="2653">
+      <c r="A2653" t="inlineStr">
+        <is>
+          <t>Sphaerimonospora</t>
+        </is>
+      </c>
+      <c r="B2653" t="inlineStr">
+        <is>
+          <t>球形单孢菌属</t>
+        </is>
+      </c>
+    </row>
+    <row r="2654">
+      <c r="A2654" t="inlineStr">
+        <is>
+          <t>Lachnospira</t>
+        </is>
+      </c>
+      <c r="B2654" t="inlineStr">
+        <is>
+          <t>毛螺菌属</t>
+        </is>
+      </c>
+    </row>
+    <row r="2655">
+      <c r="A2655" t="inlineStr">
+        <is>
+          <t>Sporotomaculum</t>
+        </is>
+      </c>
+      <c r="B2655" t="inlineStr">
+        <is>
+          <t>孢肠菌属</t>
+        </is>
+      </c>
+    </row>
+    <row r="2656">
+      <c r="A2656" t="inlineStr">
+        <is>
+          <t>Desulfovirgula</t>
+        </is>
+      </c>
+      <c r="B2656" t="inlineStr">
+        <is>
+          <t>脱硫枝菌属</t>
+        </is>
+      </c>
+    </row>
+    <row r="2657">
+      <c r="A2657" t="inlineStr">
+        <is>
+          <t>Tomitella</t>
+        </is>
+      </c>
+      <c r="B2657" t="inlineStr">
+        <is>
+          <t>托米特氏菌属</t>
+        </is>
+      </c>
+    </row>
+    <row r="2658">
+      <c r="A2658" t="inlineStr">
+        <is>
+          <t>Pseudohongiella</t>
+        </is>
+      </c>
+      <c r="B2658" t="inlineStr">
+        <is>
+          <t>假洪氏菌属</t>
+        </is>
+      </c>
+    </row>
+    <row r="2659">
+      <c r="A2659" t="inlineStr">
+        <is>
+          <t>Wocania</t>
+        </is>
+      </c>
+      <c r="B2659" t="inlineStr">
+        <is>
+          <t>沃卡尼亚菌属</t>
+        </is>
+      </c>
+    </row>
+    <row r="2660">
+      <c r="A2660" t="inlineStr">
+        <is>
+          <t>Acetomicrobium</t>
+        </is>
+      </c>
+      <c r="B2660" t="inlineStr">
+        <is>
+          <t>醋微菌属</t>
+        </is>
+      </c>
+    </row>
+    <row r="2661">
+      <c r="A2661" t="inlineStr">
+        <is>
+          <t>Petrotoga</t>
+        </is>
+      </c>
+      <c r="B2661" t="inlineStr">
+        <is>
+          <t>石油外套菌属</t>
+        </is>
+      </c>
+    </row>
+    <row r="2662">
+      <c r="A2662" t="inlineStr">
+        <is>
+          <t>Alteribacillus</t>
+        </is>
+      </c>
+      <c r="B2662" t="inlineStr">
+        <is>
+          <t>交替芽孢杆菌属</t>
+        </is>
+      </c>
+    </row>
+    <row r="2663">
+      <c r="A2663" t="inlineStr">
+        <is>
+          <t>Hanstruepera</t>
+        </is>
+      </c>
+      <c r="B2663" t="inlineStr">
+        <is>
+          <t>汉施特吕珀氏菌属</t>
+        </is>
+      </c>
+    </row>
+    <row r="2664">
+      <c r="A2664" t="inlineStr">
+        <is>
+          <t>Citromicrobium</t>
+        </is>
+      </c>
+      <c r="B2664" t="inlineStr">
+        <is>
+          <t>柠檬微菌属</t>
+        </is>
+      </c>
+    </row>
+    <row r="2665">
+      <c r="A2665" t="inlineStr">
+        <is>
+          <t>Haloactinomyces</t>
+        </is>
+      </c>
+      <c r="B2665" t="inlineStr">
+        <is>
+          <t>哈洛放线菌属</t>
+        </is>
+      </c>
+    </row>
+    <row r="2666">
+      <c r="A2666" t="inlineStr">
+        <is>
+          <t>Chloroflexus</t>
+        </is>
+      </c>
+      <c r="B2666" t="inlineStr">
+        <is>
+          <t>绿弯菌属</t>
+        </is>
+      </c>
+    </row>
+    <row r="2667">
+      <c r="A2667" t="inlineStr">
+        <is>
+          <t>Seohaeicola</t>
+        </is>
+      </c>
+      <c r="B2667" t="inlineStr">
+        <is>
+          <t>西海居菌属</t>
+        </is>
+      </c>
+    </row>
+    <row r="2668">
+      <c r="A2668" t="inlineStr">
+        <is>
+          <t>Defluviitoga</t>
+        </is>
+      </c>
+      <c r="B2668" t="inlineStr">
+        <is>
+          <t>脱流袍菌属</t>
+        </is>
+      </c>
+    </row>
+    <row r="2669">
+      <c r="A2669" t="inlineStr">
+        <is>
+          <t>Thermicanus</t>
+        </is>
+      </c>
+      <c r="B2669" t="inlineStr">
+        <is>
+          <t>热厌氧杆菌属</t>
+        </is>
+      </c>
+    </row>
+    <row r="2670">
+      <c r="A2670" t="inlineStr">
+        <is>
+          <t>Piscibacillus</t>
+        </is>
+      </c>
+      <c r="B2670" t="inlineStr">
+        <is>
+          <t>鱼芽孢杆菌属</t>
+        </is>
+      </c>
+    </row>
+    <row r="2671">
+      <c r="A2671" t="inlineStr">
+        <is>
+          <t>Oharaeibacter</t>
+        </is>
+      </c>
+      <c r="B2671" t="inlineStr">
+        <is>
+          <t>小原氏杆菌属</t>
+        </is>
+      </c>
+    </row>
+    <row r="2672">
+      <c r="A2672" t="inlineStr">
+        <is>
+          <t>Haematospirillum</t>
+        </is>
+      </c>
+      <c r="B2672" t="inlineStr">
+        <is>
+          <t>血螺旋菌属</t>
+        </is>
+      </c>
+    </row>
+    <row r="2673">
+      <c r="A2673" t="inlineStr">
+        <is>
+          <t>Borreliella</t>
+        </is>
+      </c>
+      <c r="B2673" t="inlineStr">
+        <is>
+          <t>疏螺旋体小属</t>
+        </is>
+      </c>
+    </row>
+    <row r="2674">
+      <c r="A2674" t="inlineStr">
+        <is>
+          <t>Allosphingosinicella</t>
+        </is>
+      </c>
+      <c r="B2674" t="inlineStr">
+        <is>
+          <t>异鞘氨醇小菌属</t>
+        </is>
+      </c>
+    </row>
+    <row r="2675">
+      <c r="A2675" t="inlineStr">
+        <is>
+          <t>Fulverythrobacter</t>
+        </is>
+      </c>
+      <c r="B2675" t="inlineStr">
+        <is>
+          <t>黄红色杆菌属</t>
+        </is>
+      </c>
+    </row>
+    <row r="2676">
+      <c r="A2676" t="inlineStr">
+        <is>
+          <t>Edaphosphingomonas</t>
+        </is>
+      </c>
+      <c r="B2676" t="inlineStr">
+        <is>
+          <t>土鞘氨醇单胞菌属</t>
+        </is>
+      </c>
+    </row>
+    <row r="2677">
+      <c r="A2677" t="inlineStr">
+        <is>
+          <t>Limnochorda</t>
+        </is>
+      </c>
+      <c r="B2677" t="inlineStr">
+        <is>
+          <t>湖绳菌属</t>
+        </is>
+      </c>
+    </row>
+    <row r="2678">
+      <c r="A2678" t="inlineStr">
+        <is>
+          <t>Kyrpidia</t>
+        </is>
+      </c>
+      <c r="B2678" t="inlineStr">
+        <is>
+          <t>克尔氏菌属</t>
+        </is>
+      </c>
+    </row>
+    <row r="2679">
+      <c r="A2679" t="inlineStr">
+        <is>
+          <t>Zymobacter</t>
+        </is>
+      </c>
+      <c r="B2679" t="inlineStr">
+        <is>
+          <t>发酵杆菌属</t>
+        </is>
+      </c>
+    </row>
+    <row r="2680">
+      <c r="A2680" t="inlineStr">
+        <is>
+          <t>Pelagivirga</t>
+        </is>
+      </c>
+      <c r="B2680" t="inlineStr">
+        <is>
+          <t>海洋杆状菌属</t>
+        </is>
+      </c>
+    </row>
+    <row r="2681">
+      <c r="A2681" t="inlineStr">
+        <is>
+          <t>Holospora</t>
+        </is>
+      </c>
+      <c r="B2681" t="inlineStr">
+        <is>
+          <t>全孢菌属</t>
+        </is>
+      </c>
+    </row>
+    <row r="2682">
+      <c r="A2682" t="inlineStr">
+        <is>
+          <t>Thermobispora</t>
+        </is>
+      </c>
+      <c r="B2682" t="inlineStr">
+        <is>
+          <t>热双孢菌属</t>
+        </is>
+      </c>
+    </row>
+    <row r="2683">
+      <c r="A2683" t="inlineStr">
+        <is>
+          <t>Pajaroellobacter</t>
+        </is>
+      </c>
+      <c r="B2683" t="inlineStr">
+        <is>
+          <t>帕哈罗杆菌属</t>
+        </is>
+      </c>
+    </row>
+    <row r="2684">
+      <c r="A2684" t="inlineStr">
+        <is>
+          <t>Siculibacillus</t>
+        </is>
+      </c>
+      <c r="B2684" t="inlineStr">
+        <is>
+          <t>镰刀形芽孢杆菌属</t>
+        </is>
+      </c>
+    </row>
+    <row r="2685">
+      <c r="A2685" t="inlineStr">
+        <is>
+          <t>Metamycoplasma</t>
+        </is>
+      </c>
+      <c r="B2685" t="inlineStr">
+        <is>
+          <t>代谢支原体属</t>
+        </is>
+      </c>
+    </row>
+    <row r="2686">
+      <c r="A2686" t="inlineStr">
+        <is>
+          <t>Imhoffiella</t>
+        </is>
+      </c>
+      <c r="B2686" t="inlineStr">
+        <is>
+          <t>英霍夫氏菌属</t>
+        </is>
+      </c>
+    </row>
+    <row r="2687">
+      <c r="A2687" t="inlineStr">
+        <is>
+          <t>Catellicoccus</t>
+        </is>
+      </c>
+      <c r="B2687" t="inlineStr">
+        <is>
+          <t>链球菌属</t>
+        </is>
+      </c>
+    </row>
+    <row r="2688">
+      <c r="A2688" t="inlineStr">
+        <is>
+          <t>Emergencia</t>
+        </is>
+      </c>
+      <c r="B2688" t="inlineStr">
+        <is>
+          <t>新兴菌属</t>
+        </is>
+      </c>
+    </row>
+    <row r="2689">
+      <c r="A2689" t="inlineStr">
+        <is>
+          <t>Gynurincola</t>
+        </is>
+      </c>
+      <c r="B2689" t="inlineStr">
+        <is>
+          <t>女阴栖菌属</t>
+        </is>
+      </c>
+    </row>
+    <row r="2690">
+      <c r="A2690" t="inlineStr">
+        <is>
+          <t>Hominifimenecus</t>
+        </is>
+      </c>
+      <c r="B2690" t="inlineStr">
+        <is>
+          <t>人栖小杆菌属</t>
+        </is>
+      </c>
+    </row>
+    <row r="2691">
+      <c r="A2691" t="inlineStr">
+        <is>
+          <t>Anaplasma</t>
+        </is>
+      </c>
+      <c r="B2691" t="inlineStr">
+        <is>
+          <t>无形体属</t>
+        </is>
+      </c>
+    </row>
+    <row r="2692">
+      <c r="A2692" t="inlineStr">
+        <is>
+          <t>Streptobacillus</t>
+        </is>
+      </c>
+      <c r="B2692" t="inlineStr">
+        <is>
+          <t>链杆菌属</t>
+        </is>
+      </c>
+    </row>
+    <row r="2693">
+      <c r="A2693" t="inlineStr">
+        <is>
+          <t>Merdimmobilis</t>
+        </is>
+      </c>
+      <c r="B2693" t="inlineStr">
+        <is>
+          <t>粪固着菌属</t>
+        </is>
+      </c>
+    </row>
+    <row r="2694">
+      <c r="A2694" t="inlineStr">
+        <is>
+          <t>Candidatus Neoarthromitus</t>
+        </is>
+      </c>
+      <c r="B2694" t="inlineStr">
+        <is>
+          <t>候选新节膜菌属</t>
+        </is>
+      </c>
+    </row>
+    <row r="2695">
+      <c r="A2695" t="inlineStr">
+        <is>
+          <t>Inmirania</t>
+        </is>
+      </c>
+      <c r="B2695" t="inlineStr">
+        <is>
+          <t>因米拉尼氏菌属</t>
+        </is>
+      </c>
+    </row>
+    <row r="2696">
+      <c r="A2696" t="inlineStr">
+        <is>
           <t>Sinobaca</t>
         </is>
       </c>
-      <c r="B2603" t="inlineStr">
+      <c r="B2696" t="inlineStr">
         <is>
           <t>中华芽孢杆菌属</t>
         </is>
